--- a/main/ig/StructureDefinition-fr-composition-document.xlsx
+++ b/main/ig/StructureDefinition-fr-composition-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-composition-document.xlsx
+++ b/main/ig/StructureDefinition-fr-composition-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-composition-document.xlsx
+++ b/main/ig/StructureDefinition-fr-composition-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-composition-document.xlsx
+++ b/main/ig/StructureDefinition-fr-composition-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-composition-document.xlsx
+++ b/main/ig/StructureDefinition-fr-composition-document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9037" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9037" uniqueCount="807">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,9 +275,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}clindoc-limit-participantType:The R4 FHIR Clinical Document Composition Profile contains specific extensions for data entry person, informant, information recipient, primary information recipient and tracker. So, they are not allowed in the participant extension in the R4 profile. In R6, the intention is to have dedicated-named slices of a backbone element. {extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='ENT').not() and extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='INF').not() and
-extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='IRCP').not() and
-extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='PRCP').not() and
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}clindoc-limit-participantType:The R4 FHIR Clinical Document Composition Profile contains specific extensions for data entry person, informant, information recipient, primary information recipient and tracker. So, they are not allowed in the participant extension in the R4 profile. In R6, the intention is to have dedicated-named slices of a backbone element. {extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='ENT').not() and extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='INF').not() and
+extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='IRCP').not() and
+extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='PRCP').not() and
 extension.where(url='http://hl7.org/fhir/uv/fhir-clinical-document/StructureDefinition/ParticipantExtension').extension.where(url='type').value.coding.exists(system='http://terminology.hl7.org/CodeSystem/v3-ParticipationType' and code='TRC').not()}</t>
   </si>
   <si>
@@ -569,7 +569,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1402,7 +1402,7 @@
     <t>Type of a composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1438,11 +1438,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:text}
-</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1864,7 +1860,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2277,9 +2273,6 @@
     <t>Composition.relatesTo:replaced_document.target[x]:targetIdentifier.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
     <t>Composition.relatesTo:replaced_document.target[x]:targetIdentifier.system</t>
   </si>
   <si>
@@ -2292,10 +2285,6 @@
     <t>Composition.relatesTo:replaced_document.target[x]:targetIdentifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Composition.relatesTo:appended_document</t>
   </si>
   <si>
@@ -2378,7 +2367,7 @@
   </si>
   <si>
     <t>Identifier
-Reference(Composition)</t>
+Reference(Composition|4.0.1)</t>
   </si>
   <si>
     <t>Composition.relatesTo:transformed_document.target[x]:targetIdentifier</t>
@@ -2469,7 +2458,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -18420,7 +18409,7 @@
         <v>78</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>455</v>
+        <v>143</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -18445,16 +18434,16 @@
         <v>103</v>
       </c>
       <c r="AK134" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>447</v>
@@ -18462,13 +18451,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>78</v>
@@ -18493,7 +18482,7 @@
         <v>233</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>450</v>
@@ -18512,7 +18501,7 @@
         <v>78</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>78</v>
@@ -18566,16 +18555,16 @@
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>447</v>
@@ -18583,10 +18572,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18609,19 +18598,19 @@
         <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>78</v>
@@ -18670,7 +18659,7 @@
         <v>78</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18688,24 +18677,24 @@
         <v>78</v>
       </c>
       <c r="AL136" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM136" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM136" t="s" s="2">
+      <c r="AN136" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AN136" t="s" s="2">
+      <c r="AO136" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18817,10 +18806,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18934,10 +18923,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18963,13 +18952,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19019,16 +19008,16 @@
         <v>78</v>
       </c>
       <c r="AF139" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI139" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>103</v>
@@ -19051,10 +19040,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19080,13 +19069,13 @@
         <v>133</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19115,28 +19104,28 @@
         <v>153</v>
       </c>
       <c r="Y140" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z140" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="Z140" t="s" s="2">
+      <c r="AA140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF140" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19168,10 +19157,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19197,13 +19186,13 @@
         <v>416</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -19253,7 +19242,7 @@
         <v>78</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19271,7 +19260,7 @@
         <v>78</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>78</v>
@@ -19285,10 +19274,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19314,13 +19303,13 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -19370,7 +19359,7 @@
         <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -19402,10 +19391,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19428,17 +19417,17 @@
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>78</v>
@@ -19487,7 +19476,7 @@
         <v>78</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19502,27 +19491,27 @@
         <v>103</v>
       </c>
       <c r="AK143" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL143" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AL143" t="s" s="2">
+      <c r="AM143" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM143" t="s" s="2">
+      <c r="AN143" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AN143" t="s" s="2">
+      <c r="AO143" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19545,19 +19534,19 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>78</v>
@@ -19606,7 +19595,7 @@
         <v>78</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>91</v>
@@ -19621,27 +19610,27 @@
         <v>103</v>
       </c>
       <c r="AK144" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL144" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AL144" t="s" s="2">
+      <c r="AM144" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AM144" t="s" s="2">
+      <c r="AN144" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AN144" t="s" s="2">
+      <c r="AO144" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AO144" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19664,17 +19653,17 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>78</v>
@@ -19723,7 +19712,7 @@
         <v>78</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>91</v>
@@ -19738,27 +19727,27 @@
         <v>103</v>
       </c>
       <c r="AK145" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL145" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AL145" t="s" s="2">
+      <c r="AM145" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AM145" t="s" s="2">
+      <c r="AN145" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AN145" t="s" s="2">
+      <c r="AO145" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19870,10 +19859,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19985,10 +19974,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C148" t="s" s="2">
         <v>251</v>
@@ -20013,13 +20002,13 @@
         <v>78</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20102,10 +20091,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20131,13 +20120,13 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -20187,16 +20176,16 @@
         <v>78</v>
       </c>
       <c r="AF149" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI149" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>103</v>
@@ -20219,10 +20208,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20248,13 +20237,13 @@
         <v>133</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20283,28 +20272,28 @@
         <v>153</v>
       </c>
       <c r="Y150" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z150" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="Z150" t="s" s="2">
+      <c r="AA150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF150" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -20336,10 +20325,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20365,13 +20354,13 @@
         <v>416</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20421,7 +20410,7 @@
         <v>78</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20439,7 +20428,7 @@
         <v>78</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>78</v>
@@ -20453,10 +20442,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20482,13 +20471,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20538,7 +20527,7 @@
         <v>78</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20570,10 +20559,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20599,13 +20588,13 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20655,7 +20644,7 @@
         <v>78</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>91</v>
@@ -20673,13 +20662,13 @@
         <v>78</v>
       </c>
       <c r="AL153" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM153" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AM153" t="s" s="2">
+      <c r="AN153" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>78</v>
@@ -20687,10 +20676,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20716,13 +20705,13 @@
         <v>171</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -20751,11 +20740,11 @@
         <v>323</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z154" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="Z154" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AA154" t="s" s="2">
         <v>78</v>
       </c>
@@ -20772,7 +20761,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -20790,13 +20779,13 @@
         <v>78</v>
       </c>
       <c r="AL154" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN154" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>78</v>
@@ -20804,10 +20793,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20830,19 +20819,19 @@
         <v>78</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L155" t="s" s="2">
+      <c r="M155" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>78</v>
@@ -20879,10 +20868,10 @@
         <v>78</v>
       </c>
       <c r="AB155" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AC155" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AD155" t="s" s="2">
         <v>78</v>
@@ -20891,7 +20880,7 @@
         <v>118</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -20909,13 +20898,13 @@
         <v>78</v>
       </c>
       <c r="AL155" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM155" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AM155" t="s" s="2">
+      <c r="AN155" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>78</v>
@@ -20923,10 +20912,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21038,10 +21027,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21155,14 +21144,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21184,16 +21173,16 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>78</v>
@@ -21242,7 +21231,7 @@
         <v>78</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21274,10 +21263,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21303,14 +21292,14 @@
         <v>171</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>78</v>
@@ -21338,11 +21327,11 @@
         <v>323</v>
       </c>
       <c r="Y159" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z159" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Z159" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="AA159" t="s" s="2">
         <v>78</v>
       </c>
@@ -21359,7 +21348,7 @@
         <v>78</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -21377,10 +21366,10 @@
         <v>78</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>78</v>
@@ -21391,10 +21380,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21417,17 +21406,17 @@
         <v>78</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>78</v>
@@ -21476,7 +21465,7 @@
         <v>78</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -21494,10 +21483,10 @@
         <v>78</v>
       </c>
       <c r="AL160" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM160" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>78</v>
@@ -21508,10 +21497,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21534,17 +21523,17 @@
         <v>78</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>78</v>
@@ -21593,7 +21582,7 @@
         <v>78</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
@@ -21611,27 +21600,27 @@
         <v>78</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM161" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AM161" t="s" s="2">
+      <c r="AN161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO161" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>595</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>78</v>
@@ -21653,19 +21642,19 @@
         <v>78</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M162" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>78</v>
@@ -21714,7 +21703,7 @@
         <v>78</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>79</v>
@@ -21732,13 +21721,13 @@
         <v>78</v>
       </c>
       <c r="AL162" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM162" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AM162" t="s" s="2">
+      <c r="AN162" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>78</v>
@@ -21746,10 +21735,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21861,10 +21850,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21978,14 +21967,14 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -22007,16 +21996,16 @@
         <v>112</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>78</v>
@@ -22065,7 +22054,7 @@
         <v>78</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>79</v>
@@ -22097,10 +22086,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22126,14 +22115,14 @@
         <v>171</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>78</v>
@@ -22143,7 +22132,7 @@
         <v>78</v>
       </c>
       <c r="S166" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>78</v>
@@ -22161,11 +22150,11 @@
         <v>323</v>
       </c>
       <c r="Y166" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z166" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Z166" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="AA166" t="s" s="2">
         <v>78</v>
       </c>
@@ -22182,7 +22171,7 @@
         <v>78</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>91</v>
@@ -22200,10 +22189,10 @@
         <v>78</v>
       </c>
       <c r="AL166" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM166" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>78</v>
@@ -22214,10 +22203,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22240,17 +22229,17 @@
         <v>78</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>78</v>
@@ -22299,7 +22288,7 @@
         <v>78</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
@@ -22317,10 +22306,10 @@
         <v>78</v>
       </c>
       <c r="AL167" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM167" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>78</v>
@@ -22331,10 +22320,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22360,14 +22349,14 @@
         <v>265</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>78</v>
@@ -22416,7 +22405,7 @@
         <v>78</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -22434,27 +22423,27 @@
         <v>78</v>
       </c>
       <c r="AL168" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM168" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AM168" t="s" s="2">
+      <c r="AN168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO168" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AN168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO168" t="s" s="2">
-        <v>595</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>78</v>
@@ -22476,19 +22465,19 @@
         <v>78</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M169" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N169" t="s" s="2">
+      <c r="O169" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>78</v>
@@ -22537,7 +22526,7 @@
         <v>78</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
@@ -22555,13 +22544,13 @@
         <v>78</v>
       </c>
       <c r="AL169" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM169" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AM169" t="s" s="2">
+      <c r="AN169" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>78</v>
@@ -22569,10 +22558,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22684,10 +22673,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22801,14 +22790,14 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -22830,16 +22819,16 @@
         <v>112</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>78</v>
@@ -22888,7 +22877,7 @@
         <v>78</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>79</v>
@@ -22920,10 +22909,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22949,14 +22938,14 @@
         <v>171</v>
       </c>
       <c r="L173" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>78</v>
@@ -22966,7 +22955,7 @@
         <v>78</v>
       </c>
       <c r="S173" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T173" t="s" s="2">
         <v>78</v>
@@ -22984,11 +22973,11 @@
         <v>323</v>
       </c>
       <c r="Y173" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z173" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Z173" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="AA173" t="s" s="2">
         <v>78</v>
       </c>
@@ -23005,7 +22994,7 @@
         <v>78</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>91</v>
@@ -23023,10 +23012,10 @@
         <v>78</v>
       </c>
       <c r="AL173" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM173" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>78</v>
@@ -23037,10 +23026,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23063,17 +23052,17 @@
         <v>78</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>78</v>
@@ -23122,7 +23111,7 @@
         <v>78</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>79</v>
@@ -23140,10 +23129,10 @@
         <v>78</v>
       </c>
       <c r="AL174" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM174" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>78</v>
@@ -23154,10 +23143,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23183,14 +23172,14 @@
         <v>265</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>78</v>
@@ -23239,7 +23228,7 @@
         <v>78</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>79</v>
@@ -23257,24 +23246,24 @@
         <v>78</v>
       </c>
       <c r="AL175" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM175" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AM175" t="s" s="2">
+      <c r="AN175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO175" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AN175" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO175" t="s" s="2">
-        <v>595</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23297,19 +23286,19 @@
         <v>92</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L176" t="s" s="2">
+      <c r="M176" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="N176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>78</v>
@@ -23358,7 +23347,7 @@
         <v>78</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>79</v>
@@ -23376,13 +23365,13 @@
         <v>78</v>
       </c>
       <c r="AL176" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM176" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AM176" t="s" s="2">
+      <c r="AN176" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>78</v>
@@ -23390,10 +23379,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23416,16 +23405,16 @@
         <v>78</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -23463,10 +23452,10 @@
         <v>78</v>
       </c>
       <c r="AB177" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AC177" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="AD177" t="s" s="2">
         <v>78</v>
@@ -23475,7 +23464,7 @@
         <v>118</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>79</v>
@@ -23493,13 +23482,13 @@
         <v>78</v>
       </c>
       <c r="AL177" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM177" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AM177" t="s" s="2">
+      <c r="AN177" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>78</v>
@@ -23507,10 +23496,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23622,10 +23611,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23739,14 +23728,14 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
@@ -23768,16 +23757,16 @@
         <v>112</v>
       </c>
       <c r="L180" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N180" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>78</v>
@@ -23826,7 +23815,7 @@
         <v>78</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>79</v>
@@ -23858,10 +23847,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23887,13 +23876,13 @@
         <v>171</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
@@ -23922,11 +23911,11 @@
         <v>323</v>
       </c>
       <c r="Y181" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z181" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="Z181" t="s" s="2">
-        <v>642</v>
-      </c>
       <c r="AA181" t="s" s="2">
         <v>78</v>
       </c>
@@ -23943,7 +23932,7 @@
         <v>78</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>91</v>
@@ -23961,13 +23950,13 @@
         <v>78</v>
       </c>
       <c r="AL181" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AM181" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="AM181" t="s" s="2">
+      <c r="AN181" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>78</v>
@@ -23975,10 +23964,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24001,13 +23990,13 @@
         <v>78</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L182" t="s" s="2">
+      <c r="M182" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -24056,7 +24045,7 @@
         <v>237</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>91</v>
@@ -24074,13 +24063,13 @@
         <v>78</v>
       </c>
       <c r="AL182" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM182" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM182" t="s" s="2">
+      <c r="AN182" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>78</v>
@@ -24088,13 +24077,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C183" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>78</v>
@@ -24119,10 +24108,10 @@
         <v>416</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -24173,7 +24162,7 @@
         <v>78</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -24191,13 +24180,13 @@
         <v>78</v>
       </c>
       <c r="AL183" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM183" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM183" t="s" s="2">
+      <c r="AN183" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>78</v>
@@ -24205,10 +24194,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B184" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24320,10 +24309,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B185" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24437,10 +24426,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B186" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24466,16 +24455,16 @@
         <v>171</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>78</v>
@@ -24503,28 +24492,28 @@
         <v>323</v>
       </c>
       <c r="Y186" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Z186" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Z186" t="s" s="2">
+      <c r="AA186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF186" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>79</v>
@@ -24542,7 +24531,7 @@
         <v>78</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>78</v>
@@ -24556,10 +24545,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B187" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24585,16 +24574,16 @@
         <v>233</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="N187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>78</v>
@@ -24622,28 +24611,28 @@
         <v>153</v>
       </c>
       <c r="Y187" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Z187" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="Z187" t="s" s="2">
+      <c r="AA187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF187" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>79</v>
@@ -24661,7 +24650,7 @@
         <v>78</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>78</v>
@@ -24675,10 +24664,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B188" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24704,16 +24693,16 @@
         <v>133</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="N188" t="s" s="2">
+      <c r="O188" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>78</v>
@@ -24726,43 +24715,43 @@
         <v>78</v>
       </c>
       <c r="T188" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF188" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -24780,7 +24769,7 @@
         <v>78</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>78</v>
@@ -24794,10 +24783,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B189" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24823,13 +24812,13 @@
         <v>105</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -24843,43 +24832,43 @@
         <v>78</v>
       </c>
       <c r="T189" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF189" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>79</v>
@@ -24897,7 +24886,7 @@
         <v>78</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>78</v>
@@ -24911,10 +24900,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B190" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24940,10 +24929,10 @@
         <v>257</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -24994,7 +24983,7 @@
         <v>78</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>79</v>
@@ -25012,7 +25001,7 @@
         <v>78</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>78</v>
@@ -25026,10 +25015,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B191" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25052,16 +25041,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -25111,7 +25100,7 @@
         <v>78</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
@@ -25129,7 +25118,7 @@
         <v>78</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>78</v>
@@ -25143,13 +25132,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C192" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="D192" t="s" s="2">
         <v>78</v>
@@ -25171,16 +25160,16 @@
         <v>78</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M192" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -25230,7 +25219,7 @@
         <v>78</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>79</v>
@@ -25248,13 +25237,13 @@
         <v>78</v>
       </c>
       <c r="AL192" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM192" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AM192" t="s" s="2">
+      <c r="AN192" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>78</v>
@@ -25262,10 +25251,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25377,10 +25366,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25494,14 +25483,14 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
@@ -25523,16 +25512,16 @@
         <v>112</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N195" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>78</v>
@@ -25581,7 +25570,7 @@
         <v>78</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>79</v>
@@ -25613,10 +25602,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25642,13 +25631,13 @@
         <v>171</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -25659,7 +25648,7 @@
         <v>78</v>
       </c>
       <c r="S196" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T196" t="s" s="2">
         <v>78</v>
@@ -25677,11 +25666,11 @@
         <v>323</v>
       </c>
       <c r="Y196" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z196" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="Z196" t="s" s="2">
-        <v>642</v>
-      </c>
       <c r="AA196" t="s" s="2">
         <v>78</v>
       </c>
@@ -25698,7 +25687,7 @@
         <v>78</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>91</v>
@@ -25716,13 +25705,13 @@
         <v>78</v>
       </c>
       <c r="AL196" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AM196" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="AM196" t="s" s="2">
+      <c r="AN196" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AN196" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="AO196" t="s" s="2">
         <v>78</v>
@@ -25730,10 +25719,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25759,10 +25748,10 @@
         <v>416</v>
       </c>
       <c r="L197" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M197" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -25811,7 +25800,7 @@
         <v>237</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>91</v>
@@ -25829,13 +25818,13 @@
         <v>78</v>
       </c>
       <c r="AL197" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM197" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM197" t="s" s="2">
+      <c r="AN197" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN197" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>78</v>
@@ -25843,13 +25832,13 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>78</v>
@@ -25874,10 +25863,10 @@
         <v>416</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -25928,7 +25917,7 @@
         <v>78</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>91</v>
@@ -25946,13 +25935,13 @@
         <v>78</v>
       </c>
       <c r="AL198" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM198" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM198" t="s" s="2">
+      <c r="AN198" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN198" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>78</v>
@@ -25960,10 +25949,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26075,10 +26064,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26192,10 +26181,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26221,16 +26210,16 @@
         <v>171</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="N201" t="s" s="2">
+      <c r="O201" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>78</v>
@@ -26258,28 +26247,28 @@
         <v>323</v>
       </c>
       <c r="Y201" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Z201" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Z201" t="s" s="2">
+      <c r="AA201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF201" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>79</v>
@@ -26297,7 +26286,7 @@
         <v>78</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>78</v>
@@ -26311,10 +26300,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26340,16 +26329,16 @@
         <v>233</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M202" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M202" t="s" s="2">
+      <c r="N202" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="N202" t="s" s="2">
+      <c r="O202" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>78</v>
@@ -26377,11 +26366,11 @@
         <v>153</v>
       </c>
       <c r="Y202" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Z202" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="Z202" t="s" s="2">
-        <v>725</v>
-      </c>
       <c r="AA202" t="s" s="2">
         <v>78</v>
       </c>
@@ -26398,7 +26387,7 @@
         <v>78</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>79</v>
@@ -26416,7 +26405,7 @@
         <v>78</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>78</v>
@@ -26430,10 +26419,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -26459,16 +26448,16 @@
         <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="N203" t="s" s="2">
+      <c r="O203" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>78</v>
@@ -26481,43 +26470,43 @@
         <v>78</v>
       </c>
       <c r="T203" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF203" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>79</v>
@@ -26535,7 +26524,7 @@
         <v>78</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>78</v>
@@ -26549,10 +26538,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26578,13 +26567,13 @@
         <v>105</v>
       </c>
       <c r="L204" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M204" t="s" s="2">
+      <c r="N204" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -26598,43 +26587,43 @@
         <v>78</v>
       </c>
       <c r="T204" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF204" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="U204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>79</v>
@@ -26652,7 +26641,7 @@
         <v>78</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>78</v>
@@ -26666,10 +26655,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26695,10 +26684,10 @@
         <v>257</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -26749,7 +26738,7 @@
         <v>78</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>79</v>
@@ -26767,7 +26756,7 @@
         <v>78</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>78</v>
@@ -26781,10 +26770,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -26807,16 +26796,16 @@
         <v>92</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="L206" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="M206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -26866,7 +26855,7 @@
         <v>78</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -26884,7 +26873,7 @@
         <v>78</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>78</v>
@@ -26898,13 +26887,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D207" t="s" s="2">
         <v>78</v>
@@ -26926,16 +26915,16 @@
         <v>78</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M207" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N207" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -26985,7 +26974,7 @@
         <v>78</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -27003,13 +26992,13 @@
         <v>78</v>
       </c>
       <c r="AL207" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM207" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AM207" t="s" s="2">
+      <c r="AN207" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN207" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>78</v>
@@ -27017,10 +27006,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27132,10 +27121,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27249,14 +27238,14 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
@@ -27278,16 +27267,16 @@
         <v>112</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N210" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>78</v>
@@ -27336,7 +27325,7 @@
         <v>78</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -27368,10 +27357,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27397,13 +27386,13 @@
         <v>171</v>
       </c>
       <c r="L211" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -27414,7 +27403,7 @@
         <v>78</v>
       </c>
       <c r="S211" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="T211" t="s" s="2">
         <v>78</v>
@@ -27432,11 +27421,11 @@
         <v>323</v>
       </c>
       <c r="Y211" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z211" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="Z211" t="s" s="2">
-        <v>642</v>
-      </c>
       <c r="AA211" t="s" s="2">
         <v>78</v>
       </c>
@@ -27453,7 +27442,7 @@
         <v>78</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>91</v>
@@ -27471,13 +27460,13 @@
         <v>78</v>
       </c>
       <c r="AL211" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AM211" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="AM211" t="s" s="2">
+      <c r="AN211" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AN211" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>78</v>
@@ -27485,10 +27474,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27514,10 +27503,10 @@
         <v>416</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -27566,7 +27555,7 @@
         <v>237</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>91</v>
@@ -27584,13 +27573,13 @@
         <v>78</v>
       </c>
       <c r="AL212" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM212" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM212" t="s" s="2">
+      <c r="AN212" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN212" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>78</v>
@@ -27598,13 +27587,13 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>78</v>
@@ -27629,10 +27618,10 @@
         <v>416</v>
       </c>
       <c r="L213" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -27683,7 +27672,7 @@
         <v>78</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>91</v>
@@ -27701,13 +27690,13 @@
         <v>78</v>
       </c>
       <c r="AL213" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM213" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM213" t="s" s="2">
+      <c r="AN213" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>78</v>
@@ -27715,10 +27704,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27830,10 +27819,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -27947,10 +27936,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -27976,16 +27965,16 @@
         <v>171</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="N216" t="s" s="2">
+      <c r="O216" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>78</v>
@@ -28013,28 +28002,28 @@
         <v>323</v>
       </c>
       <c r="Y216" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Z216" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Z216" t="s" s="2">
+      <c r="AA216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF216" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -28052,7 +28041,7 @@
         <v>78</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>78</v>
@@ -28066,10 +28055,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28095,16 +28084,16 @@
         <v>233</v>
       </c>
       <c r="L217" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="N217" t="s" s="2">
+      <c r="O217" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>78</v>
@@ -28132,11 +28121,11 @@
         <v>153</v>
       </c>
       <c r="Y217" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Z217" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="Z217" t="s" s="2">
-        <v>725</v>
-      </c>
       <c r="AA217" t="s" s="2">
         <v>78</v>
       </c>
@@ -28153,7 +28142,7 @@
         <v>78</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>79</v>
@@ -28171,7 +28160,7 @@
         <v>78</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>78</v>
@@ -28185,10 +28174,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28214,16 +28203,16 @@
         <v>133</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M218" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="N218" t="s" s="2">
+      <c r="O218" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>78</v>
@@ -28236,43 +28225,43 @@
         <v>78</v>
       </c>
       <c r="T218" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF218" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="U218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF218" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>79</v>
@@ -28290,7 +28279,7 @@
         <v>78</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>78</v>
@@ -28304,10 +28293,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28333,13 +28322,13 @@
         <v>105</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -28353,43 +28342,43 @@
         <v>78</v>
       </c>
       <c r="T219" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF219" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="U219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF219" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>79</v>
@@ -28407,7 +28396,7 @@
         <v>78</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>78</v>
@@ -28421,10 +28410,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28450,10 +28439,10 @@
         <v>257</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -28504,7 +28493,7 @@
         <v>78</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>79</v>
@@ -28522,7 +28511,7 @@
         <v>78</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>78</v>
@@ -28536,10 +28525,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28562,16 +28551,16 @@
         <v>92</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -28621,7 +28610,7 @@
         <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -28639,7 +28628,7 @@
         <v>78</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>78</v>
@@ -28653,13 +28642,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>78</v>
@@ -28681,16 +28670,16 @@
         <v>78</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="M222" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N222" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
@@ -28740,7 +28729,7 @@
         <v>78</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -28758,13 +28747,13 @@
         <v>78</v>
       </c>
       <c r="AL222" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM222" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AM222" t="s" s="2">
+      <c r="AN222" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AN222" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AO222" t="s" s="2">
         <v>78</v>
@@ -28772,10 +28761,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -28887,10 +28876,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29004,14 +28993,14 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" t="s" s="2">
@@ -29033,16 +29022,16 @@
         <v>112</v>
       </c>
       <c r="L225" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N225" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>78</v>
@@ -29091,7 +29080,7 @@
         <v>78</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>79</v>
@@ -29123,10 +29112,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29152,13 +29141,13 @@
         <v>171</v>
       </c>
       <c r="L226" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M226" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
@@ -29169,7 +29158,7 @@
         <v>78</v>
       </c>
       <c r="S226" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>78</v>
@@ -29187,11 +29176,11 @@
         <v>323</v>
       </c>
       <c r="Y226" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z226" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="Z226" t="s" s="2">
-        <v>642</v>
-      </c>
       <c r="AA226" t="s" s="2">
         <v>78</v>
       </c>
@@ -29208,7 +29197,7 @@
         <v>78</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>91</v>
@@ -29226,13 +29215,13 @@
         <v>78</v>
       </c>
       <c r="AL226" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AM226" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="AM226" t="s" s="2">
+      <c r="AN226" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AN226" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="AO226" t="s" s="2">
         <v>78</v>
@@ -29240,10 +29229,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29266,13 +29255,13 @@
         <v>78</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="L227" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M227" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -29321,7 +29310,7 @@
         <v>118</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>91</v>
@@ -29339,13 +29328,13 @@
         <v>78</v>
       </c>
       <c r="AL227" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM227" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM227" t="s" s="2">
+      <c r="AN227" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN227" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>78</v>
@@ -29353,13 +29342,13 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D228" t="s" s="2">
         <v>78</v>
@@ -29384,10 +29373,10 @@
         <v>416</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -29438,7 +29427,7 @@
         <v>78</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>91</v>
@@ -29456,13 +29445,13 @@
         <v>78</v>
       </c>
       <c r="AL228" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AM228" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AM228" t="s" s="2">
+      <c r="AN228" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO228" t="s" s="2">
         <v>78</v>
@@ -29470,10 +29459,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29496,19 +29485,19 @@
         <v>92</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L229" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="O229" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>78</v>
@@ -29555,7 +29544,7 @@
         <v>118</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>79</v>
@@ -29573,13 +29562,13 @@
         <v>78</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AO229" t="s" s="2">
         <v>78</v>
@@ -29587,10 +29576,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29702,10 +29691,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29815,13 +29804,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>78</v>
@@ -29843,13 +29832,13 @@
         <v>78</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -29932,14 +29921,14 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" t="s" s="2">
@@ -29961,16 +29950,16 @@
         <v>112</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N233" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>78</v>
@@ -30019,7 +30008,7 @@
         <v>78</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>79</v>
@@ -30051,10 +30040,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30080,13 +30069,13 @@
         <v>233</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
@@ -30115,10 +30104,10 @@
         <v>161</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="Z234" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AA234" t="s" s="2">
         <v>78</v>
@@ -30136,7 +30125,7 @@
         <v>78</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>79</v>
@@ -30160,7 +30149,7 @@
         <v>445</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AO234" t="s" s="2">
         <v>78</v>
@@ -30168,10 +30157,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30197,10 +30186,10 @@
         <v>257</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -30251,7 +30240,7 @@
         <v>78</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>79</v>
@@ -30269,13 +30258,13 @@
         <v>78</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AM235" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AN235" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AO235" t="s" s="2">
         <v>78</v>
@@ -30283,10 +30272,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30309,13 +30298,13 @@
         <v>92</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -30366,7 +30355,7 @@
         <v>78</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>79</v>
@@ -30384,7 +30373,7 @@
         <v>78</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>109</v>
@@ -30398,13 +30387,13 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>78</v>
@@ -30426,19 +30415,19 @@
         <v>92</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>78</v>
@@ -30487,7 +30476,7 @@
         <v>78</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>79</v>
@@ -30505,13 +30494,13 @@
         <v>78</v>
       </c>
       <c r="AL237" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AM237" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AN237" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AO237" t="s" s="2">
         <v>78</v>
@@ -30519,10 +30508,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30634,10 +30623,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30747,13 +30736,13 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>78</v>
@@ -30775,13 +30764,13 @@
         <v>78</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -30864,14 +30853,14 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
@@ -30893,16 +30882,16 @@
         <v>112</v>
       </c>
       <c r="L241" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M241" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N241" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>78</v>
@@ -30951,7 +30940,7 @@
         <v>78</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>79</v>
@@ -30983,10 +30972,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31012,13 +31001,13 @@
         <v>233</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -31047,10 +31036,10 @@
         <v>161</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>78</v>
@@ -31068,7 +31057,7 @@
         <v>78</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>79</v>
@@ -31092,7 +31081,7 @@
         <v>445</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AO242" t="s" s="2">
         <v>78</v>
@@ -31100,10 +31089,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31129,10 +31118,10 @@
         <v>257</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -31183,7 +31172,7 @@
         <v>78</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>79</v>
@@ -31201,13 +31190,13 @@
         <v>78</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AM243" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AN243" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AO243" t="s" s="2">
         <v>78</v>
@@ -31215,10 +31204,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31241,13 +31230,13 @@
         <v>92</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -31298,7 +31287,7 @@
         <v>78</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>79</v>
@@ -31316,7 +31305,7 @@
         <v>78</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>109</v>
@@ -31330,10 +31319,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -31356,13 +31345,13 @@
         <v>78</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -31401,7 +31390,7 @@
         <v>78</v>
       </c>
       <c r="AB245" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AC245" s="2"/>
       <c r="AD245" t="s" s="2">
@@ -31411,7 +31400,7 @@
         <v>118</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>79</v>
@@ -31423,16 +31412,16 @@
         <v>78</v>
       </c>
       <c r="AJ245" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AK245" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AM245" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AN245" t="s" s="2">
         <v>78</v>
